--- a/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>4.6911848476334</v>
+        <v>4.69118484929197</v>
       </c>
       <c r="C3" t="n">
         <v>2.92607112804094</v>
@@ -450,7 +450,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1.77043023019593</v>
+        <v>1.77043022956823</v>
       </c>
       <c r="C4" t="n">
         <v>2.67671653319849</v>
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>3.96442012895849</v>
+        <v>3.96442012824227</v>
       </c>
       <c r="C5" t="n">
         <v>3.86835233618015</v>
